--- a/thesis/论文参考.xlsx
+++ b/thesis/论文参考.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12280"/>
+    <workbookView windowWidth="27950" windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Auditory brainstem response thresholds difference using Click and CE-Chirp in auditory brainstem response Auditory brainstem response thresholds difference using Click and CE-Chirp in auditory brainstem response
 Emilio Dávalos-González Plata ; Jesús A. Silva-Rojas ; Pablo A. Ysunza-Rivera
@@ -95,6 +95,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>Aloufi N., Heinrich A., Marshall K., Kluk K. (2023). Sex differences and the effect of female sex hormones on auditory function: A systematic review. Frontiers in Human Neuroscience, 17, 1077409. 10.3389/fnhum.2023.1077409 -</t>
     </r>
     <r>
@@ -175,6 +181,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>Arnold S. A. (1985). Objective versus visual detection of the auditory brain stem response. Ear and Hearing, 6(3), 144–150. 10.1097/00003446-198505000-00004 -</t>
     </r>
     <r>
@@ -333,6 +345,36 @@
 BinKhamis, Ghada ; Léger, Agnès ; Bell, Steven L. ; Prendergast, Garreth ; O’Driscoll, Martin ; Kluk, Karolina
 United States: The Author(s). Published by Wolters Kluwer Health, Inc. on behalf of the American Auditory Society
 Ear and hearing, 2019-05, Vol.40 (3), p.659-670</t>
+  </si>
+  <si>
+    <t>Int J Audiol
+. 2025 Jul;64(7):766-771. doi: 10.1080/14992027.2024.2404537. Epub 2024 Oct 3.
+Automated wave labelling of the auditory brainstem response using machine learning
+Richard M McKearney 1, David M Simpson 1, Steven L Bell 1
+Affiliations Expand
+PMID: 39363648 DOI: 10.1080/14992027.2024.2404537</t>
+  </si>
+  <si>
+    <t>Int J Audiol
+. 2019 Apr;58(4):224-230. doi: 10.1080/14992027.2018.1551633. Epub 2019 Jan 21.
+Objective auditory brainstem response classification using machine learning
+Richard M McKearney 1, Robert C MacKinnon 2
+Affiliations Expand
+PMID: 30663907 DOI: 10.1080/14992027.2018.1551633</t>
+  </si>
+  <si>
+    <t>Artif Intell Med
+. 2007 May;40(1):1-14. doi: 10.1016/j.artmed.2006.07.001. Epub 2006 Aug 22.
+Auditory brainstem response classification: a hybrid model using time and frequency features
+Robert Davey 1, Paul McCullagh, Gaye Lightbody, Gerry McAllister
+Affiliations Expand
+PMID: 16930965 DOI: 10.1016/j.artmed.2006.07.001</t>
+  </si>
+  <si>
+    <t>3. Thalmeier et al. (2021)：Objective hearing threshold identification... using supervised and self-supervised approaches</t>
+  </si>
+  <si>
+    <t>Auditory brainstem response classification: a hybrid model using time and frequency features</t>
   </si>
 </sst>
 </file>
@@ -1294,10 +1336,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1466,6 +1508,31 @@
     <row r="32" ht="56" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="33" ht="84" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" ht="84" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" ht="84" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
